--- a/TC_Master.xlsx
+++ b/TC_Master.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364F9DB-DD14-47FA-8AD6-0EDC084B494C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AEE607-D019-411A-BCCC-8B605B68685C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Master" sheetId="1" r:id="rId1"/>
@@ -703,13 +703,13 @@
     <t>Verify Amazon Product search functionality</t>
   </si>
   <si>
-    <t>edge</t>
-  </si>
-  <si>
     <t>firefox</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>CHROMe</t>
   </si>
 </sst>
 </file>
@@ -1028,6 +1028,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1048,6 +1058,26 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1058,6 +1088,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1128,6 +1168,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1168,6 +1218,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1188,6 +1248,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1228,6 +1298,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1248,6 +1328,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1288,6 +1378,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1328,6 +1428,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1338,6 +1448,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1448,6 +1568,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1458,6 +1588,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1468,6 +1608,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1568,6 +1718,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1608,6 +1768,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1648,6 +1818,26 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1678,6 +1868,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1688,6 +1888,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1748,6 +1958,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1788,6 +2008,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1798,6 +2028,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1808,6 +2048,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1848,6 +2098,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1928,6 +2188,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1948,6 +2218,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -2068,6 +2348,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2088,6 +2378,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -2128,6 +2428,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2188,6 +2498,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -2228,6 +2548,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2308,6 +2638,26 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -2388,6 +2738,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2399,366 +2759,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3084,9 +3084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3121,7 +3121,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -3155,7 +3155,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -3848,9 +3848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4198,7 +4198,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -4501,7 +4501,7 @@
         <v>12</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -8210,11 +8210,11 @@
   <dataConsolidate/>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="cellIs" dxfId="177" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="23" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="24" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="23" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E23">
@@ -8258,27 +8258,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E201:E210">
-    <cfRule type="cellIs" dxfId="165" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="230" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="229" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="230" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E212:E221">
-    <cfRule type="cellIs" dxfId="163" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="228" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="227" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="228" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E223:E232">
-    <cfRule type="cellIs" dxfId="161" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="226" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="225" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="226" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E234:E243">
@@ -8290,75 +8290,75 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E245:E254">
-    <cfRule type="cellIs" dxfId="157" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="222" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="221" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="222" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E256:E265">
-    <cfRule type="cellIs" dxfId="155" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="220" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="219" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="220" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E267:E276">
-    <cfRule type="cellIs" dxfId="153" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="218" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="217" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="218" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E278:E287">
-    <cfRule type="cellIs" dxfId="151" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="216" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="215" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="216" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E289:E298">
-    <cfRule type="cellIs" dxfId="149" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="214" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="213" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="214" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E300:E309">
-    <cfRule type="cellIs" dxfId="147" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="212" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="211" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="212" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E311:E320">
-    <cfRule type="cellIs" dxfId="145" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="210" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="209" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="210" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E322:E331">
-    <cfRule type="cellIs" dxfId="143" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="208" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="207" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="208" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E333:E342">
-    <cfRule type="cellIs" dxfId="141" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="206" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="205" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="206" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E344:E353">
@@ -8394,35 +8394,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E388:E397">
-    <cfRule type="cellIs" dxfId="131" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="196" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="195" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="196" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E399:E408">
-    <cfRule type="cellIs" dxfId="129" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="194" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="193" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="194" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E410:E419">
-    <cfRule type="cellIs" dxfId="127" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="192" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="191" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="192" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E421:E430">
-    <cfRule type="cellIs" dxfId="125" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="190" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="189" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="190" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E432:E441">
@@ -8442,27 +8442,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E454:E463">
-    <cfRule type="cellIs" dxfId="119" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="184" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="183" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="184" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E465:E474">
-    <cfRule type="cellIs" dxfId="117" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="182" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="181" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="182" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E476:E485">
-    <cfRule type="cellIs" dxfId="115" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="180" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="179" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="180" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E487:E496">
@@ -8482,11 +8482,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E509:E518">
-    <cfRule type="cellIs" dxfId="109" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="174" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="173" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="174" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E520:E529">
@@ -8498,11 +8498,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E531:E540">
-    <cfRule type="cellIs" dxfId="105" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="169" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="170" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="169" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E542:E551">
@@ -8538,11 +8538,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E586:E595">
-    <cfRule type="cellIs" dxfId="95" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="160" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="159" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="160" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E597:E606">
@@ -8562,11 +8562,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E619:E628">
-    <cfRule type="cellIs" dxfId="89" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="153" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="154" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="153" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E630:E639">
@@ -8578,11 +8578,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E641:E650">
-    <cfRule type="cellIs" dxfId="85" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="150" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="149" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="150" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E652:E661">
@@ -8602,11 +8602,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E674:E683">
-    <cfRule type="cellIs" dxfId="79" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="143" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="144" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="143" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E685:E694">
@@ -8618,43 +8618,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E696:E705">
-    <cfRule type="cellIs" dxfId="75" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="140" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="139" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="140" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E707:E716">
-    <cfRule type="cellIs" dxfId="73" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="138" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="137" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="138" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E718:E727">
-    <cfRule type="cellIs" dxfId="71" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="136" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="135" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="136" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E729:E738">
-    <cfRule type="cellIs" dxfId="69" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="134" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="133" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="134" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E740:E749">
-    <cfRule type="cellIs" dxfId="67" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="132" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="131" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="132" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E751:E760">
@@ -8674,11 +8674,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E773:E782">
-    <cfRule type="cellIs" dxfId="61" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="125" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="126" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="125" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E784:E793">
@@ -8706,35 +8706,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E817:E826">
-    <cfRule type="cellIs" dxfId="53" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="118" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="117" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="118" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E828:E837">
-    <cfRule type="cellIs" dxfId="51" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="116" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="115" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="116" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E839:E848">
-    <cfRule type="cellIs" dxfId="49" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="114" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="113" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="114" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E850:E859">
-    <cfRule type="cellIs" dxfId="47" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="112" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="111" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="112" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E861:E870">
@@ -8746,11 +8746,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E872:E881">
-    <cfRule type="cellIs" dxfId="43" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="108" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="107" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="108" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E883:E892">
@@ -8802,19 +8802,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E949:E958">
-    <cfRule type="cellIs" dxfId="29" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="94" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="93" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="94" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E960:E969">
-    <cfRule type="cellIs" dxfId="27" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="92" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="91" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="92" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E971:E980">
@@ -8826,19 +8826,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E982:E991">
-    <cfRule type="cellIs" dxfId="23" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="88" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="87" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="88" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E993:E1002">
-    <cfRule type="cellIs" dxfId="21" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="86" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="85" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="86" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1004:E1013">
@@ -8850,19 +8850,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1015:E1024">
-    <cfRule type="cellIs" dxfId="17" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="82" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="81" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="82" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1026:E1035">
-    <cfRule type="cellIs" dxfId="15" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="80" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="79" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="80" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1037:E1046">
@@ -8882,11 +8882,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1059:E1068">
-    <cfRule type="cellIs" dxfId="9" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="73" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="74" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="73" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1070:E1079">
@@ -8898,11 +8898,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1081:E1090">
-    <cfRule type="cellIs" dxfId="5" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="70" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="69" operator="equal">
       <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="70" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1092:E1101">
@@ -8922,7 +8922,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Please enter Y or N" sqref="E1092:E1101 E1103:E1112 E102:E107 E168:E177 E179:E188 E190:E199 E201:E210 E212:E221 E223:E232 E234:E243 E245:E254 E256:E265 E267:E276 E278:E287 E289:E298 E300:E309 E311:E320 E322:E331 E333:E342 E344:E353 E355:E364 E366:E375 E377:E386 E388:E397 E399:E408 E410:E419 E421:E430 E432:E441 E443:E452 E454:E463 E465:E474 E476:E485 E487:E496 E498:E507 E509:E518 E520:E529 E531:E540 E542:E551 E553:E562 E564:E573 E575:E584 E586:E595 E597:E606 E608:E617 E619:E628 E630:E639 E641:E650 E652:E661 E663:E672 E674:E683 E685:E694 E696:E705 E707:E716 E718:E727 E729:E738 E740:E749 E751:E760 E762:E771 E773:E782 E784:E793 E795:E804 E806:E815 E817:E826 E828:E837 E839:E848 E850:E859 E861:E870 E872:E881 E883:E892 E894:E903 E905:E914 E916:E925 E927:E936 E938:E947 E949:E958 E960:E969 E971:E980 E982:E991 E993:E1002 E1004:E1013 E1015:E1024 E1026:E1035 E1037:E1046 E1048:E1057 E1059:E1068 E1070:E1079 E1081:E1090 E111:E123 E125:E135 E137:E166 E39:E98 E2:E10 E13:E22 E25:E33" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="Please enter Y or N" sqref="E1092:E1101 E1103:E1112 E102:E107 E168:E177 E179:E188 E190:E199 E201:E210 E212:E221 E223:E232 E234:E243 E245:E254 E256:E265 E267:E276 E278:E287 E289:E298 E300:E309 E311:E320 E322:E331 E333:E342 E344:E353 E355:E364 E366:E375 E377:E386 E388:E397 E399:E408 E410:E419 E421:E430 E432:E441 E443:E452 E454:E463 E465:E474 E476:E485 E487:E496 E498:E507 E509:E518 E520:E529 E531:E540 E542:E551 E553:E562 E564:E573 E575:E584 E586:E595 E597:E606 E608:E617 E619:E628 E630:E639 E641:E650 E652:E661 E663:E672 E674:E683 E685:E694 E696:E705 E707:E716 E718:E727 E729:E738 E740:E749 E751:E760 E762:E771 E773:E782 E784:E793 E795:E804 E806:E815 E817:E826 E828:E837 E839:E848 E850:E859 E861:E870 E872:E881 E883:E892 E894:E903 E905:E914 E916:E925 E927:E936 E938:E947 E949:E958 E960:E969 E971:E980 E982:E991 E993:E1002 E1004:E1013 E1015:E1024 E1026:E1035 E1037:E1046 E1048:E1057 E1059:E1068 E1070:E1079 E1081:E1090 E111:E123 E125:E135 E137:E166 E39:E98 E2:E10 E25:E33 E13:E23" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G61" xr:uid="{00000000-0002-0000-0100-000001000000}">
